--- a/01_Linear/Nachtfliegen_06_Scheduling.xlsx
+++ b/01_Linear/Nachtfliegen_06_Scheduling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB4F7C6-429D-7B49-A9EB-ADAA454A5CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A8D5A-DA5B-5E4C-93E5-27F710C4DF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3040" windowWidth="25340" windowHeight="15740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1880" windowWidth="25460" windowHeight="17200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>Challenge:</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>How to restrict Parttime employees to 1-1 vs Fulltime ?</t>
+  </si>
+  <si>
+    <t>B6 has a "1" because Shift 1 covers 6 am, and row 6 is about 6 am and 7 am.</t>
+  </si>
+  <si>
+    <t>B10 has no "1" because Shift 1 ends at 2 pm.</t>
+  </si>
+  <si>
+    <t>B11 and B12 have no "1" because Shift 1 does not cover either of those hours.</t>
+  </si>
+  <si>
+    <t>C6 has no "1" because Shift 2 starts at 8 am, so it does not cover 6 or 7 am.</t>
   </si>
 </sst>
 </file>
@@ -1109,9 +1121,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D46455C-2FE7-AB45-BBC5-13BCAAFFA930}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1354,6 +1368,26 @@
       <c r="F14" s="6">
         <f>SUMPRODUCT(B14:E14,B5:E5)</f>
         <v>1590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C85919D-00A5-F94D-A98F-F6472BA8910B}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
